--- a/РИС/Lab1/NTP/график NTP.xlsx
+++ b/РИС/Lab1/NTP/график NTP.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172EE963-0418-4C79-B3A3-9044A4C0FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>TC</t>
   </si>
@@ -26,14 +27,11 @@
   <si>
     <t xml:space="preserve">Среднее Cc - OStime </t>
   </si>
-  <si>
-    <t>avg correction</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,160 +74,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$B$24:$H$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$25:$H$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>94.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>79.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="99678848"/>
-        <c:axId val="100410112"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99678848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100410112"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100410112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99678848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -243,7 +96,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -322,6 +174,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDBD-404B-BD2C-25E4A98C3B1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -331,7 +188,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="101114240"/>
         <c:axId val="101115776"/>
@@ -373,7 +229,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -390,36 +245,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -435,7 +260,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -444,7 +275,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -496,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -739,22 +604,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" customWidth="1"/>
     <col min="3" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +645,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -806,7 +671,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -830,58 +695,6 @@
       </c>
       <c r="H3">
         <v>1247.5999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="C24">
-        <v>3000</v>
-      </c>
-      <c r="D24">
-        <v>6000</v>
-      </c>
-      <c r="E24">
-        <v>8000</v>
-      </c>
-      <c r="F24">
-        <v>10000</v>
-      </c>
-      <c r="G24">
-        <v>12000</v>
-      </c>
-      <c r="H24">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>94.4</v>
-      </c>
-      <c r="C25">
-        <v>88.6</v>
-      </c>
-      <c r="D25">
-        <v>63.4</v>
-      </c>
-      <c r="E25">
-        <v>55.4</v>
-      </c>
-      <c r="F25">
-        <v>79.7</v>
-      </c>
-      <c r="G25">
-        <v>55.1</v>
-      </c>
-      <c r="H25">
-        <v>54.6</v>
       </c>
     </row>
   </sheetData>
@@ -891,24 +704,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
